--- a/ProjectAssignment2RubricScore.xlsx
+++ b/ProjectAssignment2RubricScore.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\NorthwestLaptop\TAWork\StudentAssignmentRepositoriesMachineLearning\Machine Learning Project-03-12-2019-03-08-02\SierraK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="9920" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>points earned</t>
   </si>
@@ -69,12 +67,24 @@
   </si>
   <si>
     <t>update readme</t>
+  </si>
+  <si>
+    <t>A)</t>
+  </si>
+  <si>
+    <t>B)</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Looks good.  Try some of the better classifiers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -387,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,25 +405,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -421,7 +431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="42" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -432,12 +442,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="15">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="15">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -481,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="15">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -493,12 +503,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="15">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -510,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -522,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="15">
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15">
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15">
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15">
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
@@ -566,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15">
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="30">
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
@@ -588,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="15">
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,8 +615,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="2:6">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="D28">
+        <f>SUM(D22:D26)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>